--- a/medicine/Enfance/Lili_Scratchy/Lili_Scratchy.xlsx
+++ b/medicine/Enfance/Lili_Scratchy/Lili_Scratchy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lili Scratchy est le pseudonyme de Frédérique Bellier, auteure et illustratrice de livres pour la jeunesse née le 7 juillet 1969 à Orléans. 
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frédérique Bellier a été diplômée l’ECV (École de communication visuelle). Elle a ensuite travaillé pour des univers professionnels très variés : d'abord graphiste dans le textile et les vêtements, puis  l'illustratrice pour l’édition, la presse, la papeterie, les jeux de société, et la céramique. Elle se caractérise par des couleurs très vives. Dans ses sources d'inspiration : l'univers enfantin, l’art brut et le design japonais. Elle vit actuellement à Montreuil[1],[2],[3],[4],[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frédérique Bellier a été diplômée l’ECV (École de communication visuelle). Elle a ensuite travaillé pour des univers professionnels très variés : d'abord graphiste dans le textile et les vêtements, puis  l'illustratrice pour l’édition, la presse, la papeterie, les jeux de société, et la céramique. Elle se caractérise par des couleurs très vives. Dans ses sources d'inspiration : l'univers enfantin, l’art brut et le design japonais. Elle vit actuellement à Montreuil.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle a illustré et écrit de nombreux livres[7],[8]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Elle a illustré et écrit de nombreux livres,
 Lulu magazine 2 (1999)
 Le grand livre du petit pain (2000)
 À l'eau, grenouille ! (2000)
